--- a/서류/1.회의록(SOL_REC_A01).xlsx
+++ b/서류/1.회의록(SOL_REC_A01).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\서류\스프린트2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\sprilnt2\서류\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9240" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
   <si>
     <t>문서번호</t>
   </si>
@@ -435,18 +435,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>오전 09:10~09:30</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>위성데이터를 쓸까 말까? 아직 논의중</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 지역을 선택해서 시간때별 그래프를 구현하고, 기상버튼을 추가하자. 태양광발전영향에 크게 미치는 3요소 정도를 그래프 선택</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>유가예측 주제가 대다수가 좋다고 했으나, 변수가 너무 다양해서, 아쉽게도 시간 관계상 못하겠다고 했음.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -814,6 +802,950 @@
     <t>재생 에너지 클라우드 플랫폼에서 발전소 현황 그래프처럼 구현해보자.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">건희: 좋은 컴퓨터가 있었으면… 커널이 자꾸 죽어서, 의미없는 시간낭비가 자주 생김. -&gt; 의미없는 도돌이표를 보내는 시간이 늘고있다. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>승찬: 기상청API에 위성데이터가 오류가 발생해서 사용하지 못함. -&gt; 기다릴수밖에 없다.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받아야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>받아봤지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>일관성이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없어서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전처리하는데</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>애를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먹음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. -&gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노력으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해결</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉽게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>없었을까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이름 회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>들깨미역국</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, 2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>코좀그만골조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>나가서바람좀쐬조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없어조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 5. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>햇살이따땃하조</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>조이름: 햇살이따땃하조 로 결정.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">표로 보여줄때, 컬럼을 다 띄우는게 좋을까에 대해서. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다 보여줄필요는 없으니, 정제해서, 몇 개만 표로 보여주자. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>오전 09:10~09:30,17:00~ 18:00</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">위성데이터를 쓸까 말까? 아직 논의중 -&gt; 지도상에서 구현하는 위성 사진. 지도를 몇 개 쓸것이냐에 대한것. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 지역을 선택해서 시간때별 그래프를 구현하고, 기상버튼을 추가하자. 태양광발전영향에 크게 미치는 3요소 정도를 그래프 선택</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>태양광 패널 단위로 계산이 필요한지 에 대해서 논의 -&gt; 보류</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨 데이터에서 못쓰는 데이터를 정제.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GST (1,2,3) , PT,PR, RN(1,3,4),SD(1,2)WC,WW, CH, CT, ST_GD, TE(1,2,3,4) ST_SEA,WH,BF,IR,IX,wp 제거  </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 남아있는 결칙치를 어떻게 처리할지 논의 필요.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면구성에 더 필요한 요소 회의</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 구성중인 요소 1. 지도 2. 달력 3, 차트. 4 표.  5.시뮬레이션 파트. 6. 헤드. 7푸터 로 크게 화면비율을 차지하게 처리하도록 결정함.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그림판으로 임시 화면 구성 정의 완료. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>전처리중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>뭐가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>있을까</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">?  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컴퓨터가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>훈련중에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>할일이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>없다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>익일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>프론트쪽이나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>쪽으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일처리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>하기로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>결정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나영:지역별 지도로 따로 행정구역별 버튼화 하는데 힘듬. -&gt; SVG 맵 활용해서 해결.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>성호:리액트 CSS로 위치 변경하는데 애를 먹음.. 학습중.다각형 그래프 연습 필요.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -930,7 +1862,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -1628,12 +2560,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1841,6 +2932,39 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1862,38 +2986,59 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30215,8 +31360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -30230,81 +31375,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="78">
         <v>44943</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1"/>
@@ -30331,7 +31476,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C14" s="24"/>
     </row>
@@ -30345,14 +31490,14 @@
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C17" s="24"/>
     </row>
@@ -30429,7 +31574,7 @@
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
       <c r="A28" s="45"/>
       <c r="B28" s="38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" s="24"/>
     </row>
@@ -30468,7 +31613,7 @@
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C33" s="24"/>
     </row>
@@ -30482,7 +31627,7 @@
     <row r="35" spans="1:5" ht="16.5" customHeight="1">
       <c r="A35" s="15"/>
       <c r="B35" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="24"/>
     </row>
@@ -30540,7 +31685,7 @@
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C43" s="24"/>
     </row>
@@ -30615,46 +31760,46 @@
       <c r="A55" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
+      <c r="C55" s="82"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="71"/>
+      <c r="C56" s="82"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="71"/>
+      <c r="C57" s="82"/>
     </row>
     <row r="58" spans="1:5" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="73"/>
+      <c r="C58" s="84"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A59" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="86"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:5" ht="16.5" customHeight="1"/>
@@ -30668,17 +31813,17 @@
     </row>
     <row r="63" spans="1:5" ht="16.5" customHeight="1">
       <c r="A63" s="46" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B63" s="46"/>
       <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A64" s="69" t="s">
-        <v>69</v>
+      <c r="A64" s="80" t="s">
+        <v>90</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
     </row>
     <row r="65" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="66" spans="1:1" ht="16.5" customHeight="1">
@@ -31623,6 +32768,12 @@
     <row r="995" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -31632,12 +32783,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -31652,15 +32797,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.42578125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="129.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136" style="44" customWidth="1"/>
+    <col min="3" max="3" width="64" style="44" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="44" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="44" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" style="44" customWidth="1"/>
@@ -31668,265 +32813,291 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="76" t="s">
-        <v>74</v>
+      <c r="A1" s="75" t="s">
+        <v>71</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="70"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="82"/>
+      <c r="C4" s="79"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="81">
+      <c r="B5" s="78">
         <v>44944</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79" t="s">
-        <v>70</v>
+      <c r="B6" s="69" t="s">
+        <v>87</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="70"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="70"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="80"/>
+      <c r="C8" s="70"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="84"/>
+      <c r="C9" s="72"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="92" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="4" t="s">
-        <v>71</v>
+      <c r="A14" s="93"/>
+      <c r="B14" s="94" t="s">
+        <v>88</v>
       </c>
-      <c r="C14" s="24"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="4" t="s">
-        <v>72</v>
+      <c r="A15" s="93"/>
+      <c r="B15" s="94" t="s">
+        <v>89</v>
       </c>
-      <c r="C15" s="24"/>
+      <c r="C15" s="95" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="94"/>
+      <c r="C16" s="96"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="95"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="95"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="95"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="95"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="98" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="95"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="97" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="95" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="24"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="95"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="24"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="95"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="24"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="95"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="24"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="95"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="24"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="95"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="95"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="95"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="95"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="95"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="95"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="24"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="95"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="24"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="94"/>
+      <c r="C38" s="95"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="24"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="24"/>
+      <c r="A40" s="93"/>
+      <c r="B40" s="94"/>
+      <c r="C40" s="95"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="24"/>
+      <c r="A41" s="93"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="95"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="24"/>
+      <c r="A42" s="93"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="95"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="24"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="24"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="95"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="47" spans="1:5" ht="16.5" customHeight="1">
@@ -31989,46 +33160,46 @@
       <c r="A55" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="71"/>
+      <c r="C55" s="82"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="71"/>
+      <c r="C56" s="82"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="71"/>
+      <c r="C57" s="82"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="72" t="s">
+      <c r="B58" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="73"/>
+      <c r="C58" s="84"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A59" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="74" t="s">
+      <c r="B59" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="75"/>
+      <c r="C59" s="86"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:5" ht="16.5" customHeight="1"/>
@@ -32048,37 +33219,63 @@
       <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="69"/>
-      <c r="C64" s="69"/>
-    </row>
-    <row r="65" spans="1:1" ht="16.5" customHeight="1"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="80"/>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="66" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A66" s="38"/>
+      <c r="A66" s="4"/>
     </row>
     <row r="67" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A67" s="38"/>
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="68" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A68" s="38"/>
+      <c r="A68" s="4"/>
     </row>
     <row r="69" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A69" s="38"/>
+      <c r="A69" s="38" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A70" s="38"/>
-    </row>
-    <row r="71" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="72" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="73" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="74" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="75" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="76" spans="1:1" ht="16.5" customHeight="1"/>
+      <c r="A70" s="46"/>
+    </row>
+    <row r="71" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A75" s="50"/>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
     <row r="77" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="78" spans="1:1" ht="16.5" customHeight="1"/>
-    <row r="79" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A79" s="46"/>
+    </row>
     <row r="80" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="81" ht="16.5" customHeight="1"/>
     <row r="82" ht="16.5" customHeight="1"/>
@@ -32997,6 +34194,12 @@
     <row r="995" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A64:C64"/>
@@ -33006,12 +34209,6 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/서류/1.회의록(SOL_REC_A01).xlsx
+++ b/서류/1.회의록(SOL_REC_A01).xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9240" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="1" r:id="rId1"/>
     <sheet name="17일" sheetId="2" r:id="rId2"/>
     <sheet name="18일" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="19일" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="114">
   <si>
     <t>문서번호</t>
   </si>
@@ -1746,6 +1747,170 @@
     <t>성호:리액트 CSS로 위치 변경하는데 애를 먹음.. 학습중.다각형 그래프 연습 필요.</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>오전 09:10~09:30</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오늘의 안건은. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>현상황 : 나영- 지도 구현 70프로 정도 완성.  현 문제 상황 svg 가 뭐가 다르게 먹는다. 목표 달력하기</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터 - 어제 가공한 데이터, 전처리 완성(승찬) 받아와서, 지명 붙여서 파일 정리중. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 - 차트는 하는법 알았고, 표 만들예정.</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 관측 데이터, 기상데이터, 소스파일생긴걸 재활용 해본다?</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(소스 정리 해보기 데이터 파일)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">메인 타이틀과 로고. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로고 안 작성후 회의 이후 결정 예정. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>현재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gpu </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>훈련용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컴퓨터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>도입이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>필요함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련하는데 시간이 너무 많이 걸린다.. 그게 문제다. 데이터 현 가공 상태는 80%</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">각 데이터 별로 컬럼이 다르다. </t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의록   문서 번호 SOL_REC_A03</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2724,7 +2889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2881,110 +3046,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3038,6 +3101,114 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3404,10 +3575,10 @@
       <c r="J3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="53"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="7"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -3621,19 +3792,19 @@
     </row>
     <row r="11" spans="1:26" ht="21" customHeight="1">
       <c r="A11" s="5"/>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="56"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="7"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3651,17 +3822,17 @@
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="59"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3679,17 +3850,17 @@
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="58"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="78"/>
       <c r="M13" s="7"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3707,17 +3878,17 @@
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="78"/>
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3735,17 +3906,17 @@
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3935,11 +4106,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="63">
+      <c r="F22" s="82">
         <v>45308</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="84"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -3965,9 +4136,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="87"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -31375,81 +31546,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="70"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="104">
         <v>44943</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="105"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="96"/>
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="96"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1"/>
@@ -31760,46 +31931,46 @@
       <c r="A55" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="82"/>
+      <c r="C55" s="90"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="82"/>
+      <c r="C56" s="90"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="90"/>
     </row>
     <row r="58" spans="1:5" s="39" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="92"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A59" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="86"/>
+      <c r="C59" s="94"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:5" ht="16.5" customHeight="1"/>
@@ -31819,11 +31990,11 @@
       <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A64" s="80" t="s">
+      <c r="A64" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
     </row>
     <row r="65" spans="1:1" ht="16.5" customHeight="1"/>
     <row r="66" spans="1:1" ht="16.5" customHeight="1">
@@ -32768,12 +32939,6 @@
     <row r="995" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
@@ -32783,6 +32948,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
@@ -32797,8 +32968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -32813,291 +32984,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" customHeight="1">
       <c r="A3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="70"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" customHeight="1">
       <c r="A4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="78" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="79"/>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" customHeight="1">
       <c r="A5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="104">
         <v>44944</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="105"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" customHeight="1">
       <c r="A6" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="70"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="1:3" ht="16.5" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="70"/>
+      <c r="C7" s="96"/>
     </row>
     <row r="8" spans="1:3" ht="16.5" customHeight="1">
       <c r="A8" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="70"/>
+      <c r="C8" s="96"/>
     </row>
     <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
       <c r="A9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="98"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="12" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A12" s="88" t="s">
+      <c r="A12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="57" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="58" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A14" s="93"/>
-      <c r="B14" s="94" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="95"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A15" s="93"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="61" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A16" s="93"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="96"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A17" s="93"/>
-      <c r="B17" s="94" t="s">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="95"/>
+      <c r="C17" s="61"/>
     </row>
     <row r="18" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A18" s="93"/>
-      <c r="B18" s="94" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="95"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C19" s="95"/>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A20" s="93"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="95"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A21" s="93"/>
-      <c r="B21" s="97" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="95"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A22" s="93"/>
-      <c r="B22" s="87" t="s">
+      <c r="A22" s="59"/>
+      <c r="B22" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="98" t="s">
+      <c r="C22" s="64" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A23" s="93"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="95"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="93"/>
-      <c r="B24" s="97" t="s">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="95"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A25" s="93"/>
-      <c r="B25" s="97" t="s">
+      <c r="A25" s="59"/>
+      <c r="B25" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="61" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="94" t="s">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="61" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="97" t="s">
+      <c r="A27" s="59"/>
+      <c r="B27" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C27" s="95"/>
+      <c r="C27" s="61"/>
     </row>
     <row r="28" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A28" s="100"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="95"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A29" s="100"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="95"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A30" s="100"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="95"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="95"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
     </row>
     <row r="32" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="95"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
     </row>
     <row r="33" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="95"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="61"/>
     </row>
     <row r="34" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="95"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="61"/>
     </row>
     <row r="35" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="95"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="61"/>
     </row>
     <row r="36" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="94"/>
-      <c r="C36" s="95"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
     </row>
     <row r="37" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A37" s="93"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="95"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
     </row>
     <row r="38" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A38" s="93"/>
-      <c r="B38" s="94"/>
-      <c r="C38" s="95"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
     </row>
     <row r="39" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A39" s="93"/>
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
     </row>
     <row r="40" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A40" s="93"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="95"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
     </row>
     <row r="41" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A41" s="93"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="95"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="61"/>
     </row>
     <row r="42" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A42" s="93"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="95"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
     </row>
     <row r="43" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A43" s="93"/>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
     </row>
     <row r="44" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="94"/>
-      <c r="C44" s="95"/>
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
     </row>
     <row r="45" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A45" s="102"/>
-      <c r="B45" s="103"/>
-      <c r="C45" s="104"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
     </row>
     <row r="46" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="47" spans="1:5" ht="16.5" customHeight="1">
@@ -33160,46 +33327,46 @@
       <c r="A55" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="81" t="s">
+      <c r="B55" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="82"/>
+      <c r="C55" s="90"/>
     </row>
     <row r="56" spans="1:5" ht="16.5" customHeight="1">
       <c r="A56" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="81" t="s">
+      <c r="B56" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="82"/>
+      <c r="C56" s="90"/>
     </row>
     <row r="57" spans="1:5" ht="16.5" customHeight="1">
       <c r="A57" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="81" t="s">
+      <c r="B57" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="82"/>
+      <c r="C57" s="90"/>
     </row>
     <row r="58" spans="1:5" ht="16.5" customHeight="1">
       <c r="A58" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="92"/>
     </row>
     <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
       <c r="A59" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="86"/>
+      <c r="C59" s="94"/>
     </row>
     <row r="60" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="61" spans="1:5" ht="16.5" customHeight="1"/>
@@ -33219,11 +33386,11 @@
       <c r="C63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A64" s="80" t="s">
+      <c r="A64" s="88" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="80"/>
-      <c r="C64" s="80"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
     </row>
     <row r="65" spans="1:1" ht="16.5" customHeight="1">
       <c r="A65" s="4" t="s">
@@ -34194,12 +34361,6 @@
     <row r="995" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="A64:C64"/>
@@ -34209,6 +34370,12 @@
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -34217,6 +34384,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E995"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="136" style="52" customWidth="1"/>
+    <col min="3" max="3" width="64" style="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="52" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="52" customWidth="1"/>
+    <col min="6" max="26" width="8.7109375" style="52" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A1" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="102"/>
+      <c r="C1" s="103"/>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A2" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="100"/>
+      <c r="C2" s="51"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A3" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="104"/>
+      <c r="C4" s="105"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A5" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="104">
+        <v>44945</v>
+      </c>
+      <c r="C5" s="105"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="96"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A7" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="96"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A8" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="96"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A9" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="98"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="12" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A13" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="61"/>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="61"/>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="62"/>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A19" s="59"/>
+      <c r="B19" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="61"/>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A20" s="59"/>
+      <c r="B20" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="61"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A21" s="59"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="61"/>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A22" s="59"/>
+      <c r="B22" s="106" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="64"/>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="61"/>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A24" s="59"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="61"/>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A25" s="59"/>
+      <c r="B25" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="61"/>
+    </row>
+    <row r="26" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A27" s="59"/>
+      <c r="B27" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="61"/>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="61"/>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="61"/>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+    </row>
+    <row r="32" spans="1:3" ht="16.5" customHeight="1">
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A33" s="59"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A34" s="59"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="61"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A35" s="59"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="61"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A41" s="59"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A44" s="59"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A45" s="68"/>
+      <c r="B45" s="69"/>
+      <c r="C45" s="70"/>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="47" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A48" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A49" s="15"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="16"/>
+    </row>
+    <row r="50" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A50" s="15"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="16"/>
+    </row>
+    <row r="51" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A51" s="17"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="18"/>
+    </row>
+    <row r="52" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="53" spans="1:5" ht="16.5" customHeight="1" thickBot="1"/>
+    <row r="54" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A54" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
+    </row>
+    <row r="55" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A55" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" s="90"/>
+    </row>
+    <row r="56" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A56" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="90"/>
+    </row>
+    <row r="57" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A57" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="90"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A58" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="92"/>
+    </row>
+    <row r="59" spans="1:5" ht="16.5" customHeight="1" thickBot="1">
+      <c r="A59" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="94"/>
+    </row>
+    <row r="60" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="61" spans="1:5" ht="16.5" customHeight="1"/>
+    <row r="62" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A62" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A63" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+    </row>
+    <row r="64" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A64" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="88"/>
+      <c r="C64" s="88"/>
+    </row>
+    <row r="65" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A65" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A66" s="4"/>
+    </row>
+    <row r="67" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A67" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A68" s="4"/>
+    </row>
+    <row r="69" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A69" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A70" s="46"/>
+    </row>
+    <row r="71" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A71" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A72" s="4"/>
+    </row>
+    <row r="73" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A73" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A74" s="4"/>
+    </row>
+    <row r="75" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A75" s="50"/>
+    </row>
+    <row r="76" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A76" s="4"/>
+    </row>
+    <row r="77" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="78" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="79" spans="1:1" ht="16.5" customHeight="1">
+      <c r="A79" s="46"/>
+    </row>
+    <row r="80" spans="1:1" ht="16.5" customHeight="1"/>
+    <row r="81" ht="16.5" customHeight="1"/>
+    <row r="82" ht="16.5" customHeight="1"/>
+    <row r="83" ht="16.5" customHeight="1"/>
+    <row r="84" ht="16.5" customHeight="1"/>
+    <row r="85" ht="16.5" customHeight="1"/>
+    <row r="86" ht="16.5" customHeight="1"/>
+    <row r="87" ht="16.5" customHeight="1"/>
+    <row r="88" ht="16.5" customHeight="1"/>
+    <row r="89" ht="16.5" customHeight="1"/>
+    <row r="90" ht="16.5" customHeight="1"/>
+    <row r="91" ht="16.5" customHeight="1"/>
+    <row r="92" ht="16.5" customHeight="1"/>
+    <row r="93" ht="16.5" customHeight="1"/>
+    <row r="94" ht="16.5" customHeight="1"/>
+    <row r="95" ht="16.5" customHeight="1"/>
+    <row r="96" ht="16.5" customHeight="1"/>
+    <row r="97" ht="16.5" customHeight="1"/>
+    <row r="98" ht="16.5" customHeight="1"/>
+    <row r="99" ht="16.5" customHeight="1"/>
+    <row r="100" ht="16.5" customHeight="1"/>
+    <row r="101" ht="16.5" customHeight="1"/>
+    <row r="102" ht="16.5" customHeight="1"/>
+    <row r="103" ht="16.5" customHeight="1"/>
+    <row r="104" ht="16.5" customHeight="1"/>
+    <row r="105" ht="16.5" customHeight="1"/>
+    <row r="106" ht="16.5" customHeight="1"/>
+    <row r="107" ht="16.5" customHeight="1"/>
+    <row r="108" ht="16.5" customHeight="1"/>
+    <row r="109" ht="16.5" customHeight="1"/>
+    <row r="110" ht="16.5" customHeight="1"/>
+    <row r="111" ht="16.5" customHeight="1"/>
+    <row r="112" ht="16.5" customHeight="1"/>
+    <row r="113" ht="16.5" customHeight="1"/>
+    <row r="114" ht="16.5" customHeight="1"/>
+    <row r="115" ht="16.5" customHeight="1"/>
+    <row r="116" ht="16.5" customHeight="1"/>
+    <row r="117" ht="16.5" customHeight="1"/>
+    <row r="118" ht="16.5" customHeight="1"/>
+    <row r="119" ht="16.5" customHeight="1"/>
+    <row r="120" ht="16.5" customHeight="1"/>
+    <row r="121" ht="16.5" customHeight="1"/>
+    <row r="122" ht="16.5" customHeight="1"/>
+    <row r="123" ht="16.5" customHeight="1"/>
+    <row r="124" ht="16.5" customHeight="1"/>
+    <row r="125" ht="16.5" customHeight="1"/>
+    <row r="126" ht="16.5" customHeight="1"/>
+    <row r="127" ht="16.5" customHeight="1"/>
+    <row r="128" ht="16.5" customHeight="1"/>
+    <row r="129" ht="16.5" customHeight="1"/>
+    <row r="130" ht="16.5" customHeight="1"/>
+    <row r="131" ht="16.5" customHeight="1"/>
+    <row r="132" ht="16.5" customHeight="1"/>
+    <row r="133" ht="16.5" customHeight="1"/>
+    <row r="134" ht="16.5" customHeight="1"/>
+    <row r="135" ht="16.5" customHeight="1"/>
+    <row r="136" ht="16.5" customHeight="1"/>
+    <row r="137" ht="16.5" customHeight="1"/>
+    <row r="138" ht="16.5" customHeight="1"/>
+    <row r="139" ht="16.5" customHeight="1"/>
+    <row r="140" ht="16.5" customHeight="1"/>
+    <row r="141" ht="16.5" customHeight="1"/>
+    <row r="142" ht="16.5" customHeight="1"/>
+    <row r="143" ht="16.5" customHeight="1"/>
+    <row r="144" ht="16.5" customHeight="1"/>
+    <row r="145" ht="16.5" customHeight="1"/>
+    <row r="146" ht="16.5" customHeight="1"/>
+    <row r="147" ht="16.5" customHeight="1"/>
+    <row r="148" ht="16.5" customHeight="1"/>
+    <row r="149" ht="16.5" customHeight="1"/>
+    <row r="150" ht="16.5" customHeight="1"/>
+    <row r="151" ht="16.5" customHeight="1"/>
+    <row r="152" ht="16.5" customHeight="1"/>
+    <row r="153" ht="16.5" customHeight="1"/>
+    <row r="154" ht="16.5" customHeight="1"/>
+    <row r="155" ht="16.5" customHeight="1"/>
+    <row r="156" ht="16.5" customHeight="1"/>
+    <row r="157" ht="16.5" customHeight="1"/>
+    <row r="158" ht="16.5" customHeight="1"/>
+    <row r="159" ht="16.5" customHeight="1"/>
+    <row r="160" ht="16.5" customHeight="1"/>
+    <row r="161" ht="16.5" customHeight="1"/>
+    <row r="162" ht="16.5" customHeight="1"/>
+    <row r="163" ht="16.5" customHeight="1"/>
+    <row r="164" ht="16.5" customHeight="1"/>
+    <row r="165" ht="16.5" customHeight="1"/>
+    <row r="166" ht="16.5" customHeight="1"/>
+    <row r="167" ht="16.5" customHeight="1"/>
+    <row r="168" ht="16.5" customHeight="1"/>
+    <row r="169" ht="16.5" customHeight="1"/>
+    <row r="170" ht="16.5" customHeight="1"/>
+    <row r="171" ht="16.5" customHeight="1"/>
+    <row r="172" ht="16.5" customHeight="1"/>
+    <row r="173" ht="16.5" customHeight="1"/>
+    <row r="174" ht="16.5" customHeight="1"/>
+    <row r="175" ht="16.5" customHeight="1"/>
+    <row r="176" ht="16.5" customHeight="1"/>
+    <row r="177" ht="16.5" customHeight="1"/>
+    <row r="178" ht="16.5" customHeight="1"/>
+    <row r="179" ht="16.5" customHeight="1"/>
+    <row r="180" ht="16.5" customHeight="1"/>
+    <row r="181" ht="16.5" customHeight="1"/>
+    <row r="182" ht="16.5" customHeight="1"/>
+    <row r="183" ht="16.5" customHeight="1"/>
+    <row r="184" ht="16.5" customHeight="1"/>
+    <row r="185" ht="16.5" customHeight="1"/>
+    <row r="186" ht="16.5" customHeight="1"/>
+    <row r="187" ht="16.5" customHeight="1"/>
+    <row r="188" ht="16.5" customHeight="1"/>
+    <row r="189" ht="16.5" customHeight="1"/>
+    <row r="190" ht="16.5" customHeight="1"/>
+    <row r="191" ht="16.5" customHeight="1"/>
+    <row r="192" ht="16.5" customHeight="1"/>
+    <row r="193" ht="16.5" customHeight="1"/>
+    <row r="194" ht="16.5" customHeight="1"/>
+    <row r="195" ht="16.5" customHeight="1"/>
+    <row r="196" ht="16.5" customHeight="1"/>
+    <row r="197" ht="16.5" customHeight="1"/>
+    <row r="198" ht="16.5" customHeight="1"/>
+    <row r="199" ht="16.5" customHeight="1"/>
+    <row r="200" ht="16.5" customHeight="1"/>
+    <row r="201" ht="16.5" customHeight="1"/>
+    <row r="202" ht="16.5" customHeight="1"/>
+    <row r="203" ht="16.5" customHeight="1"/>
+    <row r="204" ht="16.5" customHeight="1"/>
+    <row r="205" ht="16.5" customHeight="1"/>
+    <row r="206" ht="16.5" customHeight="1"/>
+    <row r="207" ht="16.5" customHeight="1"/>
+    <row r="208" ht="16.5" customHeight="1"/>
+    <row r="209" ht="16.5" customHeight="1"/>
+    <row r="210" ht="16.5" customHeight="1"/>
+    <row r="211" ht="16.5" customHeight="1"/>
+    <row r="212" ht="16.5" customHeight="1"/>
+    <row r="213" ht="16.5" customHeight="1"/>
+    <row r="214" ht="16.5" customHeight="1"/>
+    <row r="215" ht="16.5" customHeight="1"/>
+    <row r="216" ht="16.5" customHeight="1"/>
+    <row r="217" ht="16.5" customHeight="1"/>
+    <row r="218" ht="16.5" customHeight="1"/>
+    <row r="219" ht="16.5" customHeight="1"/>
+    <row r="220" ht="16.5" customHeight="1"/>
+    <row r="221" ht="16.5" customHeight="1"/>
+    <row r="222" ht="16.5" customHeight="1"/>
+    <row r="223" ht="16.5" customHeight="1"/>
+    <row r="224" ht="16.5" customHeight="1"/>
+    <row r="225" ht="16.5" customHeight="1"/>
+    <row r="226" ht="16.5" customHeight="1"/>
+    <row r="227" ht="16.5" customHeight="1"/>
+    <row r="228" ht="16.5" customHeight="1"/>
+    <row r="229" ht="16.5" customHeight="1"/>
+    <row r="230" ht="16.5" customHeight="1"/>
+    <row r="231" ht="16.5" customHeight="1"/>
+    <row r="232" ht="16.5" customHeight="1"/>
+    <row r="233" ht="16.5" customHeight="1"/>
+    <row r="234" ht="16.5" customHeight="1"/>
+    <row r="235" ht="16.5" customHeight="1"/>
+    <row r="236" ht="16.5" customHeight="1"/>
+    <row r="237" ht="16.5" customHeight="1"/>
+    <row r="238" ht="16.5" customHeight="1"/>
+    <row r="239" ht="16.5" customHeight="1"/>
+    <row r="240" ht="16.5" customHeight="1"/>
+    <row r="241" ht="16.5" customHeight="1"/>
+    <row r="242" ht="16.5" customHeight="1"/>
+    <row r="243" ht="16.5" customHeight="1"/>
+    <row r="244" ht="16.5" customHeight="1"/>
+    <row r="245" ht="16.5" customHeight="1"/>
+    <row r="246" ht="16.5" customHeight="1"/>
+    <row r="247" ht="16.5" customHeight="1"/>
+    <row r="248" ht="16.5" customHeight="1"/>
+    <row r="249" ht="16.5" customHeight="1"/>
+    <row r="250" ht="16.5" customHeight="1"/>
+    <row r="251" ht="16.5" customHeight="1"/>
+    <row r="252" ht="16.5" customHeight="1"/>
+    <row r="253" ht="16.5" customHeight="1"/>
+    <row r="254" ht="16.5" customHeight="1"/>
+    <row r="255" ht="16.5" customHeight="1"/>
+    <row r="256" ht="16.5" customHeight="1"/>
+    <row r="257" ht="16.5" customHeight="1"/>
+    <row r="258" ht="16.5" customHeight="1"/>
+    <row r="259" ht="16.5" customHeight="1"/>
+    <row r="260" ht="16.5" customHeight="1"/>
+    <row r="261" ht="16.5" customHeight="1"/>
+    <row r="262" ht="16.5" customHeight="1"/>
+    <row r="263" ht="16.5" customHeight="1"/>
+    <row r="264" ht="16.5" customHeight="1"/>
+    <row r="265" ht="16.5" customHeight="1"/>
+    <row r="266" ht="16.5" customHeight="1"/>
+    <row r="267" ht="16.5" customHeight="1"/>
+    <row r="268" ht="16.5" customHeight="1"/>
+    <row r="269" ht="16.5" customHeight="1"/>
+    <row r="270" ht="16.5" customHeight="1"/>
+    <row r="271" ht="16.5" customHeight="1"/>
+    <row r="272" ht="16.5" customHeight="1"/>
+    <row r="273" ht="16.5" customHeight="1"/>
+    <row r="274" ht="16.5" customHeight="1"/>
+    <row r="275" ht="16.5" customHeight="1"/>
+    <row r="276" ht="16.5" customHeight="1"/>
+    <row r="277" ht="16.5" customHeight="1"/>
+    <row r="278" ht="16.5" customHeight="1"/>
+    <row r="279" ht="16.5" customHeight="1"/>
+    <row r="280" ht="16.5" customHeight="1"/>
+    <row r="281" ht="16.5" customHeight="1"/>
+    <row r="282" ht="16.5" customHeight="1"/>
+    <row r="283" ht="16.5" customHeight="1"/>
+    <row r="284" ht="16.5" customHeight="1"/>
+    <row r="285" ht="16.5" customHeight="1"/>
+    <row r="286" ht="16.5" customHeight="1"/>
+    <row r="287" ht="16.5" customHeight="1"/>
+    <row r="288" ht="16.5" customHeight="1"/>
+    <row r="289" ht="16.5" customHeight="1"/>
+    <row r="290" ht="16.5" customHeight="1"/>
+    <row r="291" ht="16.5" customHeight="1"/>
+    <row r="292" ht="16.5" customHeight="1"/>
+    <row r="293" ht="16.5" customHeight="1"/>
+    <row r="294" ht="16.5" customHeight="1"/>
+    <row r="295" ht="16.5" customHeight="1"/>
+    <row r="296" ht="16.5" customHeight="1"/>
+    <row r="297" ht="16.5" customHeight="1"/>
+    <row r="298" ht="16.5" customHeight="1"/>
+    <row r="299" ht="16.5" customHeight="1"/>
+    <row r="300" ht="16.5" customHeight="1"/>
+    <row r="301" ht="16.5" customHeight="1"/>
+    <row r="302" ht="16.5" customHeight="1"/>
+    <row r="303" ht="16.5" customHeight="1"/>
+    <row r="304" ht="16.5" customHeight="1"/>
+    <row r="305" ht="16.5" customHeight="1"/>
+    <row r="306" ht="16.5" customHeight="1"/>
+    <row r="307" ht="16.5" customHeight="1"/>
+    <row r="308" ht="16.5" customHeight="1"/>
+    <row r="309" ht="16.5" customHeight="1"/>
+    <row r="310" ht="16.5" customHeight="1"/>
+    <row r="311" ht="16.5" customHeight="1"/>
+    <row r="312" ht="16.5" customHeight="1"/>
+    <row r="313" ht="16.5" customHeight="1"/>
+    <row r="314" ht="16.5" customHeight="1"/>
+    <row r="315" ht="16.5" customHeight="1"/>
+    <row r="316" ht="16.5" customHeight="1"/>
+    <row r="317" ht="16.5" customHeight="1"/>
+    <row r="318" ht="16.5" customHeight="1"/>
+    <row r="319" ht="16.5" customHeight="1"/>
+    <row r="320" ht="16.5" customHeight="1"/>
+    <row r="321" ht="16.5" customHeight="1"/>
+    <row r="322" ht="16.5" customHeight="1"/>
+    <row r="323" ht="16.5" customHeight="1"/>
+    <row r="324" ht="16.5" customHeight="1"/>
+    <row r="325" ht="16.5" customHeight="1"/>
+    <row r="326" ht="16.5" customHeight="1"/>
+    <row r="327" ht="16.5" customHeight="1"/>
+    <row r="328" ht="16.5" customHeight="1"/>
+    <row r="329" ht="16.5" customHeight="1"/>
+    <row r="330" ht="16.5" customHeight="1"/>
+    <row r="331" ht="16.5" customHeight="1"/>
+    <row r="332" ht="16.5" customHeight="1"/>
+    <row r="333" ht="16.5" customHeight="1"/>
+    <row r="334" ht="16.5" customHeight="1"/>
+    <row r="335" ht="16.5" customHeight="1"/>
+    <row r="336" ht="16.5" customHeight="1"/>
+    <row r="337" ht="16.5" customHeight="1"/>
+    <row r="338" ht="16.5" customHeight="1"/>
+    <row r="339" ht="16.5" customHeight="1"/>
+    <row r="340" ht="16.5" customHeight="1"/>
+    <row r="341" ht="16.5" customHeight="1"/>
+    <row r="342" ht="16.5" customHeight="1"/>
+    <row r="343" ht="16.5" customHeight="1"/>
+    <row r="344" ht="16.5" customHeight="1"/>
+    <row r="345" ht="16.5" customHeight="1"/>
+    <row r="346" ht="16.5" customHeight="1"/>
+    <row r="347" ht="16.5" customHeight="1"/>
+    <row r="348" ht="16.5" customHeight="1"/>
+    <row r="349" ht="16.5" customHeight="1"/>
+    <row r="350" ht="16.5" customHeight="1"/>
+    <row r="351" ht="16.5" customHeight="1"/>
+    <row r="352" ht="16.5" customHeight="1"/>
+    <row r="353" ht="16.5" customHeight="1"/>
+    <row r="354" ht="16.5" customHeight="1"/>
+    <row r="355" ht="16.5" customHeight="1"/>
+    <row r="356" ht="16.5" customHeight="1"/>
+    <row r="357" ht="16.5" customHeight="1"/>
+    <row r="358" ht="16.5" customHeight="1"/>
+    <row r="359" ht="16.5" customHeight="1"/>
+    <row r="360" ht="16.5" customHeight="1"/>
+    <row r="361" ht="16.5" customHeight="1"/>
+    <row r="362" ht="16.5" customHeight="1"/>
+    <row r="363" ht="16.5" customHeight="1"/>
+    <row r="364" ht="16.5" customHeight="1"/>
+    <row r="365" ht="16.5" customHeight="1"/>
+    <row r="366" ht="16.5" customHeight="1"/>
+    <row r="367" ht="16.5" customHeight="1"/>
+    <row r="368" ht="16.5" customHeight="1"/>
+    <row r="369" ht="16.5" customHeight="1"/>
+    <row r="370" ht="16.5" customHeight="1"/>
+    <row r="371" ht="16.5" customHeight="1"/>
+    <row r="372" ht="16.5" customHeight="1"/>
+    <row r="373" ht="16.5" customHeight="1"/>
+    <row r="374" ht="16.5" customHeight="1"/>
+    <row r="375" ht="16.5" customHeight="1"/>
+    <row r="376" ht="16.5" customHeight="1"/>
+    <row r="377" ht="16.5" customHeight="1"/>
+    <row r="378" ht="16.5" customHeight="1"/>
+    <row r="379" ht="16.5" customHeight="1"/>
+    <row r="380" ht="16.5" customHeight="1"/>
+    <row r="381" ht="16.5" customHeight="1"/>
+    <row r="382" ht="16.5" customHeight="1"/>
+    <row r="383" ht="16.5" customHeight="1"/>
+    <row r="384" ht="16.5" customHeight="1"/>
+    <row r="385" ht="16.5" customHeight="1"/>
+    <row r="386" ht="16.5" customHeight="1"/>
+    <row r="387" ht="16.5" customHeight="1"/>
+    <row r="388" ht="16.5" customHeight="1"/>
+    <row r="389" ht="16.5" customHeight="1"/>
+    <row r="390" ht="16.5" customHeight="1"/>
+    <row r="391" ht="16.5" customHeight="1"/>
+    <row r="392" ht="16.5" customHeight="1"/>
+    <row r="393" ht="16.5" customHeight="1"/>
+    <row r="394" ht="16.5" customHeight="1"/>
+    <row r="395" ht="16.5" customHeight="1"/>
+    <row r="396" ht="16.5" customHeight="1"/>
+    <row r="397" ht="16.5" customHeight="1"/>
+    <row r="398" ht="16.5" customHeight="1"/>
+    <row r="399" ht="16.5" customHeight="1"/>
+    <row r="400" ht="16.5" customHeight="1"/>
+    <row r="401" ht="16.5" customHeight="1"/>
+    <row r="402" ht="16.5" customHeight="1"/>
+    <row r="403" ht="16.5" customHeight="1"/>
+    <row r="404" ht="16.5" customHeight="1"/>
+    <row r="405" ht="16.5" customHeight="1"/>
+    <row r="406" ht="16.5" customHeight="1"/>
+    <row r="407" ht="16.5" customHeight="1"/>
+    <row r="408" ht="16.5" customHeight="1"/>
+    <row r="409" ht="16.5" customHeight="1"/>
+    <row r="410" ht="16.5" customHeight="1"/>
+    <row r="411" ht="16.5" customHeight="1"/>
+    <row r="412" ht="16.5" customHeight="1"/>
+    <row r="413" ht="16.5" customHeight="1"/>
+    <row r="414" ht="16.5" customHeight="1"/>
+    <row r="415" ht="16.5" customHeight="1"/>
+    <row r="416" ht="16.5" customHeight="1"/>
+    <row r="417" ht="16.5" customHeight="1"/>
+    <row r="418" ht="16.5" customHeight="1"/>
+    <row r="419" ht="16.5" customHeight="1"/>
+    <row r="420" ht="16.5" customHeight="1"/>
+    <row r="421" ht="16.5" customHeight="1"/>
+    <row r="422" ht="16.5" customHeight="1"/>
+    <row r="423" ht="16.5" customHeight="1"/>
+    <row r="424" ht="16.5" customHeight="1"/>
+    <row r="425" ht="16.5" customHeight="1"/>
+    <row r="426" ht="16.5" customHeight="1"/>
+    <row r="427" ht="16.5" customHeight="1"/>
+    <row r="428" ht="16.5" customHeight="1"/>
+    <row r="429" ht="16.5" customHeight="1"/>
+    <row r="430" ht="16.5" customHeight="1"/>
+    <row r="431" ht="16.5" customHeight="1"/>
+    <row r="432" ht="16.5" customHeight="1"/>
+    <row r="433" ht="16.5" customHeight="1"/>
+    <row r="434" ht="16.5" customHeight="1"/>
+    <row r="435" ht="16.5" customHeight="1"/>
+    <row r="436" ht="16.5" customHeight="1"/>
+    <row r="437" ht="16.5" customHeight="1"/>
+    <row r="438" ht="16.5" customHeight="1"/>
+    <row r="439" ht="16.5" customHeight="1"/>
+    <row r="440" ht="16.5" customHeight="1"/>
+    <row r="441" ht="16.5" customHeight="1"/>
+    <row r="442" ht="16.5" customHeight="1"/>
+    <row r="443" ht="16.5" customHeight="1"/>
+    <row r="444" ht="16.5" customHeight="1"/>
+    <row r="445" ht="16.5" customHeight="1"/>
+    <row r="446" ht="16.5" customHeight="1"/>
+    <row r="447" ht="16.5" customHeight="1"/>
+    <row r="448" ht="16.5" customHeight="1"/>
+    <row r="449" ht="16.5" customHeight="1"/>
+    <row r="450" ht="16.5" customHeight="1"/>
+    <row r="451" ht="16.5" customHeight="1"/>
+    <row r="452" ht="16.5" customHeight="1"/>
+    <row r="453" ht="16.5" customHeight="1"/>
+    <row r="454" ht="16.5" customHeight="1"/>
+    <row r="455" ht="16.5" customHeight="1"/>
+    <row r="456" ht="16.5" customHeight="1"/>
+    <row r="457" ht="16.5" customHeight="1"/>
+    <row r="458" ht="16.5" customHeight="1"/>
+    <row r="459" ht="16.5" customHeight="1"/>
+    <row r="460" ht="16.5" customHeight="1"/>
+    <row r="461" ht="16.5" customHeight="1"/>
+    <row r="462" ht="16.5" customHeight="1"/>
+    <row r="463" ht="16.5" customHeight="1"/>
+    <row r="464" ht="16.5" customHeight="1"/>
+    <row r="465" ht="16.5" customHeight="1"/>
+    <row r="466" ht="16.5" customHeight="1"/>
+    <row r="467" ht="16.5" customHeight="1"/>
+    <row r="468" ht="16.5" customHeight="1"/>
+    <row r="469" ht="16.5" customHeight="1"/>
+    <row r="470" ht="16.5" customHeight="1"/>
+    <row r="471" ht="16.5" customHeight="1"/>
+    <row r="472" ht="16.5" customHeight="1"/>
+    <row r="473" ht="16.5" customHeight="1"/>
+    <row r="474" ht="16.5" customHeight="1"/>
+    <row r="475" ht="16.5" customHeight="1"/>
+    <row r="476" ht="16.5" customHeight="1"/>
+    <row r="477" ht="16.5" customHeight="1"/>
+    <row r="478" ht="16.5" customHeight="1"/>
+    <row r="479" ht="16.5" customHeight="1"/>
+    <row r="480" ht="16.5" customHeight="1"/>
+    <row r="481" ht="16.5" customHeight="1"/>
+    <row r="482" ht="16.5" customHeight="1"/>
+    <row r="483" ht="16.5" customHeight="1"/>
+    <row r="484" ht="16.5" customHeight="1"/>
+    <row r="485" ht="16.5" customHeight="1"/>
+    <row r="486" ht="16.5" customHeight="1"/>
+    <row r="487" ht="16.5" customHeight="1"/>
+    <row r="488" ht="16.5" customHeight="1"/>
+    <row r="489" ht="16.5" customHeight="1"/>
+    <row r="490" ht="16.5" customHeight="1"/>
+    <row r="491" ht="16.5" customHeight="1"/>
+    <row r="492" ht="16.5" customHeight="1"/>
+    <row r="493" ht="16.5" customHeight="1"/>
+    <row r="494" ht="16.5" customHeight="1"/>
+    <row r="495" ht="16.5" customHeight="1"/>
+    <row r="496" ht="16.5" customHeight="1"/>
+    <row r="497" ht="16.5" customHeight="1"/>
+    <row r="498" ht="16.5" customHeight="1"/>
+    <row r="499" ht="16.5" customHeight="1"/>
+    <row r="500" ht="16.5" customHeight="1"/>
+    <row r="501" ht="16.5" customHeight="1"/>
+    <row r="502" ht="16.5" customHeight="1"/>
+    <row r="503" ht="16.5" customHeight="1"/>
+    <row r="504" ht="16.5" customHeight="1"/>
+    <row r="505" ht="16.5" customHeight="1"/>
+    <row r="506" ht="16.5" customHeight="1"/>
+    <row r="507" ht="16.5" customHeight="1"/>
+    <row r="508" ht="16.5" customHeight="1"/>
+    <row r="509" ht="16.5" customHeight="1"/>
+    <row r="510" ht="16.5" customHeight="1"/>
+    <row r="511" ht="16.5" customHeight="1"/>
+    <row r="512" ht="16.5" customHeight="1"/>
+    <row r="513" ht="16.5" customHeight="1"/>
+    <row r="514" ht="16.5" customHeight="1"/>
+    <row r="515" ht="16.5" customHeight="1"/>
+    <row r="516" ht="16.5" customHeight="1"/>
+    <row r="517" ht="16.5" customHeight="1"/>
+    <row r="518" ht="16.5" customHeight="1"/>
+    <row r="519" ht="16.5" customHeight="1"/>
+    <row r="520" ht="16.5" customHeight="1"/>
+    <row r="521" ht="16.5" customHeight="1"/>
+    <row r="522" ht="16.5" customHeight="1"/>
+    <row r="523" ht="16.5" customHeight="1"/>
+    <row r="524" ht="16.5" customHeight="1"/>
+    <row r="525" ht="16.5" customHeight="1"/>
+    <row r="526" ht="16.5" customHeight="1"/>
+    <row r="527" ht="16.5" customHeight="1"/>
+    <row r="528" ht="16.5" customHeight="1"/>
+    <row r="529" ht="16.5" customHeight="1"/>
+    <row r="530" ht="16.5" customHeight="1"/>
+    <row r="531" ht="16.5" customHeight="1"/>
+    <row r="532" ht="16.5" customHeight="1"/>
+    <row r="533" ht="16.5" customHeight="1"/>
+    <row r="534" ht="16.5" customHeight="1"/>
+    <row r="535" ht="16.5" customHeight="1"/>
+    <row r="536" ht="16.5" customHeight="1"/>
+    <row r="537" ht="16.5" customHeight="1"/>
+    <row r="538" ht="16.5" customHeight="1"/>
+    <row r="539" ht="16.5" customHeight="1"/>
+    <row r="540" ht="16.5" customHeight="1"/>
+    <row r="541" ht="16.5" customHeight="1"/>
+    <row r="542" ht="16.5" customHeight="1"/>
+    <row r="543" ht="16.5" customHeight="1"/>
+    <row r="544" ht="16.5" customHeight="1"/>
+    <row r="545" ht="16.5" customHeight="1"/>
+    <row r="546" ht="16.5" customHeight="1"/>
+    <row r="547" ht="16.5" customHeight="1"/>
+    <row r="548" ht="16.5" customHeight="1"/>
+    <row r="549" ht="16.5" customHeight="1"/>
+    <row r="550" ht="16.5" customHeight="1"/>
+    <row r="551" ht="16.5" customHeight="1"/>
+    <row r="552" ht="16.5" customHeight="1"/>
+    <row r="553" ht="16.5" customHeight="1"/>
+    <row r="554" ht="16.5" customHeight="1"/>
+    <row r="555" ht="16.5" customHeight="1"/>
+    <row r="556" ht="16.5" customHeight="1"/>
+    <row r="557" ht="16.5" customHeight="1"/>
+    <row r="558" ht="16.5" customHeight="1"/>
+    <row r="559" ht="16.5" customHeight="1"/>
+    <row r="560" ht="16.5" customHeight="1"/>
+    <row r="561" ht="16.5" customHeight="1"/>
+    <row r="562" ht="16.5" customHeight="1"/>
+    <row r="563" ht="16.5" customHeight="1"/>
+    <row r="564" ht="16.5" customHeight="1"/>
+    <row r="565" ht="16.5" customHeight="1"/>
+    <row r="566" ht="16.5" customHeight="1"/>
+    <row r="567" ht="16.5" customHeight="1"/>
+    <row r="568" ht="16.5" customHeight="1"/>
+    <row r="569" ht="16.5" customHeight="1"/>
+    <row r="570" ht="16.5" customHeight="1"/>
+    <row r="571" ht="16.5" customHeight="1"/>
+    <row r="572" ht="16.5" customHeight="1"/>
+    <row r="573" ht="16.5" customHeight="1"/>
+    <row r="574" ht="16.5" customHeight="1"/>
+    <row r="575" ht="16.5" customHeight="1"/>
+    <row r="576" ht="16.5" customHeight="1"/>
+    <row r="577" ht="16.5" customHeight="1"/>
+    <row r="578" ht="16.5" customHeight="1"/>
+    <row r="579" ht="16.5" customHeight="1"/>
+    <row r="580" ht="16.5" customHeight="1"/>
+    <row r="581" ht="16.5" customHeight="1"/>
+    <row r="582" ht="16.5" customHeight="1"/>
+    <row r="583" ht="16.5" customHeight="1"/>
+    <row r="584" ht="16.5" customHeight="1"/>
+    <row r="585" ht="16.5" customHeight="1"/>
+    <row r="586" ht="16.5" customHeight="1"/>
+    <row r="587" ht="16.5" customHeight="1"/>
+    <row r="588" ht="16.5" customHeight="1"/>
+    <row r="589" ht="16.5" customHeight="1"/>
+    <row r="590" ht="16.5" customHeight="1"/>
+    <row r="591" ht="16.5" customHeight="1"/>
+    <row r="592" ht="16.5" customHeight="1"/>
+    <row r="593" ht="16.5" customHeight="1"/>
+    <row r="594" ht="16.5" customHeight="1"/>
+    <row r="595" ht="16.5" customHeight="1"/>
+    <row r="596" ht="16.5" customHeight="1"/>
+    <row r="597" ht="16.5" customHeight="1"/>
+    <row r="598" ht="16.5" customHeight="1"/>
+    <row r="599" ht="16.5" customHeight="1"/>
+    <row r="600" ht="16.5" customHeight="1"/>
+    <row r="601" ht="16.5" customHeight="1"/>
+    <row r="602" ht="16.5" customHeight="1"/>
+    <row r="603" ht="16.5" customHeight="1"/>
+    <row r="604" ht="16.5" customHeight="1"/>
+    <row r="605" ht="16.5" customHeight="1"/>
+    <row r="606" ht="16.5" customHeight="1"/>
+    <row r="607" ht="16.5" customHeight="1"/>
+    <row r="608" ht="16.5" customHeight="1"/>
+    <row r="609" ht="16.5" customHeight="1"/>
+    <row r="610" ht="16.5" customHeight="1"/>
+    <row r="611" ht="16.5" customHeight="1"/>
+    <row r="612" ht="16.5" customHeight="1"/>
+    <row r="613" ht="16.5" customHeight="1"/>
+    <row r="614" ht="16.5" customHeight="1"/>
+    <row r="615" ht="16.5" customHeight="1"/>
+    <row r="616" ht="16.5" customHeight="1"/>
+    <row r="617" ht="16.5" customHeight="1"/>
+    <row r="618" ht="16.5" customHeight="1"/>
+    <row r="619" ht="16.5" customHeight="1"/>
+    <row r="620" ht="16.5" customHeight="1"/>
+    <row r="621" ht="16.5" customHeight="1"/>
+    <row r="622" ht="16.5" customHeight="1"/>
+    <row r="623" ht="16.5" customHeight="1"/>
+    <row r="624" ht="16.5" customHeight="1"/>
+    <row r="625" ht="16.5" customHeight="1"/>
+    <row r="626" ht="16.5" customHeight="1"/>
+    <row r="627" ht="16.5" customHeight="1"/>
+    <row r="628" ht="16.5" customHeight="1"/>
+    <row r="629" ht="16.5" customHeight="1"/>
+    <row r="630" ht="16.5" customHeight="1"/>
+    <row r="631" ht="16.5" customHeight="1"/>
+    <row r="632" ht="16.5" customHeight="1"/>
+    <row r="633" ht="16.5" customHeight="1"/>
+    <row r="634" ht="16.5" customHeight="1"/>
+    <row r="635" ht="16.5" customHeight="1"/>
+    <row r="636" ht="16.5" customHeight="1"/>
+    <row r="637" ht="16.5" customHeight="1"/>
+    <row r="638" ht="16.5" customHeight="1"/>
+    <row r="639" ht="16.5" customHeight="1"/>
+    <row r="640" ht="16.5" customHeight="1"/>
+    <row r="641" ht="16.5" customHeight="1"/>
+    <row r="642" ht="16.5" customHeight="1"/>
+    <row r="643" ht="16.5" customHeight="1"/>
+    <row r="644" ht="16.5" customHeight="1"/>
+    <row r="645" ht="16.5" customHeight="1"/>
+    <row r="646" ht="16.5" customHeight="1"/>
+    <row r="647" ht="16.5" customHeight="1"/>
+    <row r="648" ht="16.5" customHeight="1"/>
+    <row r="649" ht="16.5" customHeight="1"/>
+    <row r="650" ht="16.5" customHeight="1"/>
+    <row r="651" ht="16.5" customHeight="1"/>
+    <row r="652" ht="16.5" customHeight="1"/>
+    <row r="653" ht="16.5" customHeight="1"/>
+    <row r="654" ht="16.5" customHeight="1"/>
+    <row r="655" ht="16.5" customHeight="1"/>
+    <row r="656" ht="16.5" customHeight="1"/>
+    <row r="657" ht="16.5" customHeight="1"/>
+    <row r="658" ht="16.5" customHeight="1"/>
+    <row r="659" ht="16.5" customHeight="1"/>
+    <row r="660" ht="16.5" customHeight="1"/>
+    <row r="661" ht="16.5" customHeight="1"/>
+    <row r="662" ht="16.5" customHeight="1"/>
+    <row r="663" ht="16.5" customHeight="1"/>
+    <row r="664" ht="16.5" customHeight="1"/>
+    <row r="665" ht="16.5" customHeight="1"/>
+    <row r="666" ht="16.5" customHeight="1"/>
+    <row r="667" ht="16.5" customHeight="1"/>
+    <row r="668" ht="16.5" customHeight="1"/>
+    <row r="669" ht="16.5" customHeight="1"/>
+    <row r="670" ht="16.5" customHeight="1"/>
+    <row r="671" ht="16.5" customHeight="1"/>
+    <row r="672" ht="16.5" customHeight="1"/>
+    <row r="673" ht="16.5" customHeight="1"/>
+    <row r="674" ht="16.5" customHeight="1"/>
+    <row r="675" ht="16.5" customHeight="1"/>
+    <row r="676" ht="16.5" customHeight="1"/>
+    <row r="677" ht="16.5" customHeight="1"/>
+    <row r="678" ht="16.5" customHeight="1"/>
+    <row r="679" ht="16.5" customHeight="1"/>
+    <row r="680" ht="16.5" customHeight="1"/>
+    <row r="681" ht="16.5" customHeight="1"/>
+    <row r="682" ht="16.5" customHeight="1"/>
+    <row r="683" ht="16.5" customHeight="1"/>
+    <row r="684" ht="16.5" customHeight="1"/>
+    <row r="685" ht="16.5" customHeight="1"/>
+    <row r="686" ht="16.5" customHeight="1"/>
+    <row r="687" ht="16.5" customHeight="1"/>
+    <row r="688" ht="16.5" customHeight="1"/>
+    <row r="689" ht="16.5" customHeight="1"/>
+    <row r="690" ht="16.5" customHeight="1"/>
+    <row r="691" ht="16.5" customHeight="1"/>
+    <row r="692" ht="16.5" customHeight="1"/>
+    <row r="693" ht="16.5" customHeight="1"/>
+    <row r="694" ht="16.5" customHeight="1"/>
+    <row r="695" ht="16.5" customHeight="1"/>
+    <row r="696" ht="16.5" customHeight="1"/>
+    <row r="697" ht="16.5" customHeight="1"/>
+    <row r="698" ht="16.5" customHeight="1"/>
+    <row r="699" ht="16.5" customHeight="1"/>
+    <row r="700" ht="16.5" customHeight="1"/>
+    <row r="701" ht="16.5" customHeight="1"/>
+    <row r="702" ht="16.5" customHeight="1"/>
+    <row r="703" ht="16.5" customHeight="1"/>
+    <row r="704" ht="16.5" customHeight="1"/>
+    <row r="705" ht="16.5" customHeight="1"/>
+    <row r="706" ht="16.5" customHeight="1"/>
+    <row r="707" ht="16.5" customHeight="1"/>
+    <row r="708" ht="16.5" customHeight="1"/>
+    <row r="709" ht="16.5" customHeight="1"/>
+    <row r="710" ht="16.5" customHeight="1"/>
+    <row r="711" ht="16.5" customHeight="1"/>
+    <row r="712" ht="16.5" customHeight="1"/>
+    <row r="713" ht="16.5" customHeight="1"/>
+    <row r="714" ht="16.5" customHeight="1"/>
+    <row r="715" ht="16.5" customHeight="1"/>
+    <row r="716" ht="16.5" customHeight="1"/>
+    <row r="717" ht="16.5" customHeight="1"/>
+    <row r="718" ht="16.5" customHeight="1"/>
+    <row r="719" ht="16.5" customHeight="1"/>
+    <row r="720" ht="16.5" customHeight="1"/>
+    <row r="721" ht="16.5" customHeight="1"/>
+    <row r="722" ht="16.5" customHeight="1"/>
+    <row r="723" ht="16.5" customHeight="1"/>
+    <row r="724" ht="16.5" customHeight="1"/>
+    <row r="725" ht="16.5" customHeight="1"/>
+    <row r="726" ht="16.5" customHeight="1"/>
+    <row r="727" ht="16.5" customHeight="1"/>
+    <row r="728" ht="16.5" customHeight="1"/>
+    <row r="729" ht="16.5" customHeight="1"/>
+    <row r="730" ht="16.5" customHeight="1"/>
+    <row r="731" ht="16.5" customHeight="1"/>
+    <row r="732" ht="16.5" customHeight="1"/>
+    <row r="733" ht="16.5" customHeight="1"/>
+    <row r="734" ht="16.5" customHeight="1"/>
+    <row r="735" ht="16.5" customHeight="1"/>
+    <row r="736" ht="16.5" customHeight="1"/>
+    <row r="737" ht="16.5" customHeight="1"/>
+    <row r="738" ht="16.5" customHeight="1"/>
+    <row r="739" ht="16.5" customHeight="1"/>
+    <row r="740" ht="16.5" customHeight="1"/>
+    <row r="741" ht="16.5" customHeight="1"/>
+    <row r="742" ht="16.5" customHeight="1"/>
+    <row r="743" ht="16.5" customHeight="1"/>
+    <row r="744" ht="16.5" customHeight="1"/>
+    <row r="745" ht="16.5" customHeight="1"/>
+    <row r="746" ht="16.5" customHeight="1"/>
+    <row r="747" ht="16.5" customHeight="1"/>
+    <row r="748" ht="16.5" customHeight="1"/>
+    <row r="749" ht="16.5" customHeight="1"/>
+    <row r="750" ht="16.5" customHeight="1"/>
+    <row r="751" ht="16.5" customHeight="1"/>
+    <row r="752" ht="16.5" customHeight="1"/>
+    <row r="753" ht="16.5" customHeight="1"/>
+    <row r="754" ht="16.5" customHeight="1"/>
+    <row r="755" ht="16.5" customHeight="1"/>
+    <row r="756" ht="16.5" customHeight="1"/>
+    <row r="757" ht="16.5" customHeight="1"/>
+    <row r="758" ht="16.5" customHeight="1"/>
+    <row r="759" ht="16.5" customHeight="1"/>
+    <row r="760" ht="16.5" customHeight="1"/>
+    <row r="761" ht="16.5" customHeight="1"/>
+    <row r="762" ht="16.5" customHeight="1"/>
+    <row r="763" ht="16.5" customHeight="1"/>
+    <row r="764" ht="16.5" customHeight="1"/>
+    <row r="765" ht="16.5" customHeight="1"/>
+    <row r="766" ht="16.5" customHeight="1"/>
+    <row r="767" ht="16.5" customHeight="1"/>
+    <row r="768" ht="16.5" customHeight="1"/>
+    <row r="769" ht="16.5" customHeight="1"/>
+    <row r="770" ht="16.5" customHeight="1"/>
+    <row r="771" ht="16.5" customHeight="1"/>
+    <row r="772" ht="16.5" customHeight="1"/>
+    <row r="773" ht="16.5" customHeight="1"/>
+    <row r="774" ht="16.5" customHeight="1"/>
+    <row r="775" ht="16.5" customHeight="1"/>
+    <row r="776" ht="16.5" customHeight="1"/>
+    <row r="777" ht="16.5" customHeight="1"/>
+    <row r="778" ht="16.5" customHeight="1"/>
+    <row r="779" ht="16.5" customHeight="1"/>
+    <row r="780" ht="16.5" customHeight="1"/>
+    <row r="781" ht="16.5" customHeight="1"/>
+    <row r="782" ht="16.5" customHeight="1"/>
+    <row r="783" ht="16.5" customHeight="1"/>
+    <row r="784" ht="16.5" customHeight="1"/>
+    <row r="785" ht="16.5" customHeight="1"/>
+    <row r="786" ht="16.5" customHeight="1"/>
+    <row r="787" ht="16.5" customHeight="1"/>
+    <row r="788" ht="16.5" customHeight="1"/>
+    <row r="789" ht="16.5" customHeight="1"/>
+    <row r="790" ht="16.5" customHeight="1"/>
+    <row r="791" ht="16.5" customHeight="1"/>
+    <row r="792" ht="16.5" customHeight="1"/>
+    <row r="793" ht="16.5" customHeight="1"/>
+    <row r="794" ht="16.5" customHeight="1"/>
+    <row r="795" ht="16.5" customHeight="1"/>
+    <row r="796" ht="16.5" customHeight="1"/>
+    <row r="797" ht="16.5" customHeight="1"/>
+    <row r="798" ht="16.5" customHeight="1"/>
+    <row r="799" ht="16.5" customHeight="1"/>
+    <row r="800" ht="16.5" customHeight="1"/>
+    <row r="801" ht="16.5" customHeight="1"/>
+    <row r="802" ht="16.5" customHeight="1"/>
+    <row r="803" ht="16.5" customHeight="1"/>
+    <row r="804" ht="16.5" customHeight="1"/>
+    <row r="805" ht="16.5" customHeight="1"/>
+    <row r="806" ht="16.5" customHeight="1"/>
+    <row r="807" ht="16.5" customHeight="1"/>
+    <row r="808" ht="16.5" customHeight="1"/>
+    <row r="809" ht="16.5" customHeight="1"/>
+    <row r="810" ht="16.5" customHeight="1"/>
+    <row r="811" ht="16.5" customHeight="1"/>
+    <row r="812" ht="16.5" customHeight="1"/>
+    <row r="813" ht="16.5" customHeight="1"/>
+    <row r="814" ht="16.5" customHeight="1"/>
+    <row r="815" ht="16.5" customHeight="1"/>
+    <row r="816" ht="16.5" customHeight="1"/>
+    <row r="817" ht="16.5" customHeight="1"/>
+    <row r="818" ht="16.5" customHeight="1"/>
+    <row r="819" ht="16.5" customHeight="1"/>
+    <row r="820" ht="16.5" customHeight="1"/>
+    <row r="821" ht="16.5" customHeight="1"/>
+    <row r="822" ht="16.5" customHeight="1"/>
+    <row r="823" ht="16.5" customHeight="1"/>
+    <row r="824" ht="16.5" customHeight="1"/>
+    <row r="825" ht="16.5" customHeight="1"/>
+    <row r="826" ht="16.5" customHeight="1"/>
+    <row r="827" ht="16.5" customHeight="1"/>
+    <row r="828" ht="16.5" customHeight="1"/>
+    <row r="829" ht="16.5" customHeight="1"/>
+    <row r="830" ht="16.5" customHeight="1"/>
+    <row r="831" ht="16.5" customHeight="1"/>
+    <row r="832" ht="16.5" customHeight="1"/>
+    <row r="833" ht="16.5" customHeight="1"/>
+    <row r="834" ht="16.5" customHeight="1"/>
+    <row r="835" ht="16.5" customHeight="1"/>
+    <row r="836" ht="16.5" customHeight="1"/>
+    <row r="837" ht="16.5" customHeight="1"/>
+    <row r="838" ht="16.5" customHeight="1"/>
+    <row r="839" ht="16.5" customHeight="1"/>
+    <row r="840" ht="16.5" customHeight="1"/>
+    <row r="841" ht="16.5" customHeight="1"/>
+    <row r="842" ht="16.5" customHeight="1"/>
+    <row r="843" ht="16.5" customHeight="1"/>
+    <row r="844" ht="16.5" customHeight="1"/>
+    <row r="845" ht="16.5" customHeight="1"/>
+    <row r="846" ht="16.5" customHeight="1"/>
+    <row r="847" ht="16.5" customHeight="1"/>
+    <row r="848" ht="16.5" customHeight="1"/>
+    <row r="849" ht="16.5" customHeight="1"/>
+    <row r="850" ht="16.5" customHeight="1"/>
+    <row r="851" ht="16.5" customHeight="1"/>
+    <row r="852" ht="16.5" customHeight="1"/>
+    <row r="853" ht="16.5" customHeight="1"/>
+    <row r="854" ht="16.5" customHeight="1"/>
+    <row r="855" ht="16.5" customHeight="1"/>
+    <row r="856" ht="16.5" customHeight="1"/>
+    <row r="857" ht="16.5" customHeight="1"/>
+    <row r="858" ht="16.5" customHeight="1"/>
+    <row r="859" ht="16.5" customHeight="1"/>
+    <row r="860" ht="16.5" customHeight="1"/>
+    <row r="861" ht="16.5" customHeight="1"/>
+    <row r="862" ht="16.5" customHeight="1"/>
+    <row r="863" ht="16.5" customHeight="1"/>
+    <row r="864" ht="16.5" customHeight="1"/>
+    <row r="865" ht="16.5" customHeight="1"/>
+    <row r="866" ht="16.5" customHeight="1"/>
+    <row r="867" ht="16.5" customHeight="1"/>
+    <row r="868" ht="16.5" customHeight="1"/>
+    <row r="869" ht="16.5" customHeight="1"/>
+    <row r="870" ht="16.5" customHeight="1"/>
+    <row r="871" ht="16.5" customHeight="1"/>
+    <row r="872" ht="16.5" customHeight="1"/>
+    <row r="873" ht="16.5" customHeight="1"/>
+    <row r="874" ht="16.5" customHeight="1"/>
+    <row r="875" ht="16.5" customHeight="1"/>
+    <row r="876" ht="16.5" customHeight="1"/>
+    <row r="877" ht="16.5" customHeight="1"/>
+    <row r="878" ht="16.5" customHeight="1"/>
+    <row r="879" ht="16.5" customHeight="1"/>
+    <row r="880" ht="16.5" customHeight="1"/>
+    <row r="881" ht="16.5" customHeight="1"/>
+    <row r="882" ht="16.5" customHeight="1"/>
+    <row r="883" ht="16.5" customHeight="1"/>
+    <row r="884" ht="16.5" customHeight="1"/>
+    <row r="885" ht="16.5" customHeight="1"/>
+    <row r="886" ht="16.5" customHeight="1"/>
+    <row r="887" ht="16.5" customHeight="1"/>
+    <row r="888" ht="16.5" customHeight="1"/>
+    <row r="889" ht="16.5" customHeight="1"/>
+    <row r="890" ht="16.5" customHeight="1"/>
+    <row r="891" ht="16.5" customHeight="1"/>
+    <row r="892" ht="16.5" customHeight="1"/>
+    <row r="893" ht="16.5" customHeight="1"/>
+    <row r="894" ht="16.5" customHeight="1"/>
+    <row r="895" ht="16.5" customHeight="1"/>
+    <row r="896" ht="16.5" customHeight="1"/>
+    <row r="897" ht="16.5" customHeight="1"/>
+    <row r="898" ht="16.5" customHeight="1"/>
+    <row r="899" ht="16.5" customHeight="1"/>
+    <row r="900" ht="16.5" customHeight="1"/>
+    <row r="901" ht="16.5" customHeight="1"/>
+    <row r="902" ht="16.5" customHeight="1"/>
+    <row r="903" ht="16.5" customHeight="1"/>
+    <row r="904" ht="16.5" customHeight="1"/>
+    <row r="905" ht="16.5" customHeight="1"/>
+    <row r="906" ht="16.5" customHeight="1"/>
+    <row r="907" ht="16.5" customHeight="1"/>
+    <row r="908" ht="16.5" customHeight="1"/>
+    <row r="909" ht="16.5" customHeight="1"/>
+    <row r="910" ht="16.5" customHeight="1"/>
+    <row r="911" ht="16.5" customHeight="1"/>
+    <row r="912" ht="16.5" customHeight="1"/>
+    <row r="913" ht="16.5" customHeight="1"/>
+    <row r="914" ht="16.5" customHeight="1"/>
+    <row r="915" ht="16.5" customHeight="1"/>
+    <row r="916" ht="16.5" customHeight="1"/>
+    <row r="917" ht="16.5" customHeight="1"/>
+    <row r="918" ht="16.5" customHeight="1"/>
+    <row r="919" ht="16.5" customHeight="1"/>
+    <row r="920" ht="16.5" customHeight="1"/>
+    <row r="921" ht="16.5" customHeight="1"/>
+    <row r="922" ht="16.5" customHeight="1"/>
+    <row r="923" ht="16.5" customHeight="1"/>
+    <row r="924" ht="16.5" customHeight="1"/>
+    <row r="925" ht="16.5" customHeight="1"/>
+    <row r="926" ht="16.5" customHeight="1"/>
+    <row r="927" ht="16.5" customHeight="1"/>
+    <row r="928" ht="16.5" customHeight="1"/>
+    <row r="929" ht="16.5" customHeight="1"/>
+    <row r="930" ht="16.5" customHeight="1"/>
+    <row r="931" ht="16.5" customHeight="1"/>
+    <row r="932" ht="16.5" customHeight="1"/>
+    <row r="933" ht="16.5" customHeight="1"/>
+    <row r="934" ht="16.5" customHeight="1"/>
+    <row r="935" ht="16.5" customHeight="1"/>
+    <row r="936" ht="16.5" customHeight="1"/>
+    <row r="937" ht="16.5" customHeight="1"/>
+    <row r="938" ht="16.5" customHeight="1"/>
+    <row r="939" ht="16.5" customHeight="1"/>
+    <row r="940" ht="16.5" customHeight="1"/>
+    <row r="941" ht="16.5" customHeight="1"/>
+    <row r="942" ht="16.5" customHeight="1"/>
+    <row r="943" ht="16.5" customHeight="1"/>
+    <row r="944" ht="16.5" customHeight="1"/>
+    <row r="945" ht="16.5" customHeight="1"/>
+    <row r="946" ht="16.5" customHeight="1"/>
+    <row r="947" ht="16.5" customHeight="1"/>
+    <row r="948" ht="16.5" customHeight="1"/>
+    <row r="949" ht="16.5" customHeight="1"/>
+    <row r="950" ht="16.5" customHeight="1"/>
+    <row r="951" ht="16.5" customHeight="1"/>
+    <row r="952" ht="16.5" customHeight="1"/>
+    <row r="953" ht="16.5" customHeight="1"/>
+    <row r="954" ht="16.5" customHeight="1"/>
+    <row r="955" ht="16.5" customHeight="1"/>
+    <row r="956" ht="16.5" customHeight="1"/>
+    <row r="957" ht="16.5" customHeight="1"/>
+    <row r="958" ht="16.5" customHeight="1"/>
+    <row r="959" ht="16.5" customHeight="1"/>
+    <row r="960" ht="16.5" customHeight="1"/>
+    <row r="961" ht="16.5" customHeight="1"/>
+    <row r="962" ht="16.5" customHeight="1"/>
+    <row r="963" ht="16.5" customHeight="1"/>
+    <row r="964" ht="16.5" customHeight="1"/>
+    <row r="965" ht="16.5" customHeight="1"/>
+    <row r="966" ht="16.5" customHeight="1"/>
+    <row r="967" ht="16.5" customHeight="1"/>
+    <row r="968" ht="16.5" customHeight="1"/>
+    <row r="969" ht="16.5" customHeight="1"/>
+    <row r="970" ht="16.5" customHeight="1"/>
+    <row r="971" ht="16.5" customHeight="1"/>
+    <row r="972" ht="16.5" customHeight="1"/>
+    <row r="973" ht="16.5" customHeight="1"/>
+    <row r="974" ht="16.5" customHeight="1"/>
+    <row r="975" ht="16.5" customHeight="1"/>
+    <row r="976" ht="16.5" customHeight="1"/>
+    <row r="977" ht="16.5" customHeight="1"/>
+    <row r="978" ht="16.5" customHeight="1"/>
+    <row r="979" ht="16.5" customHeight="1"/>
+    <row r="980" ht="16.5" customHeight="1"/>
+    <row r="981" ht="16.5" customHeight="1"/>
+    <row r="982" ht="16.5" customHeight="1"/>
+    <row r="983" ht="16.5" customHeight="1"/>
+    <row r="984" ht="16.5" customHeight="1"/>
+    <row r="985" ht="16.5" customHeight="1"/>
+    <row r="986" ht="16.5" customHeight="1"/>
+    <row r="987" ht="16.5" customHeight="1"/>
+    <row r="988" ht="16.5" customHeight="1"/>
+    <row r="989" ht="16.5" customHeight="1"/>
+    <row r="990" ht="16.5" customHeight="1"/>
+    <row r="991" ht="16.5" customHeight="1"/>
+    <row r="992" ht="16.5" customHeight="1"/>
+    <row r="993" ht="16.5" customHeight="1"/>
+    <row r="994" ht="16.5" customHeight="1"/>
+    <row r="995" ht="16.5" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
